--- a/Assets/Resources/GuideResources/GuideDB_day5.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,18 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +222,19 @@
 단, 피해자가 최상급 시민일 경우 진행하지 않는다.
 의사, 연구원, 상담가: 2급까지 사면 가능
 개발자(중급 이상), 교사(하급 이상): 3급까지 사면 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;
+테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,11 +570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -813,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -821,7 +825,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,7 +861,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -871,7 +875,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -896,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -921,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -932,7 +936,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -946,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -996,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1021,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1035,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1049,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1060,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -1074,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GuideResources/GuideDB_day5.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,6 +154,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,19 +234,6 @@
 단, 피해자가 최상급 시민일 경우 진행하지 않는다.
 의사, 연구원, 상담가: 2급까지 사면 가능
 개발자(중급 이상), 교사(하급 이상): 3급까지 사면 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;
-테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,14 +569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -817,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -825,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -861,7 +857,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -875,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -900,7 +896,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -925,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -936,7 +932,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
@@ -950,7 +946,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -986,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -1000,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1039,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1053,7 +1049,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1064,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -1078,7 +1074,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
